--- a/datos/Generador inputs horarios 1.xlsx
+++ b/datos/Generador inputs horarios 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2022C33E-B67F-4246-A364-6E08593EEBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008B9D3-27BB-401F-9F39-142C24D6D537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,7 @@
       </c>
       <c r="E7">
         <f>SUM(D53:H53)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="str">
         <f>IF(E7&gt;=D7,"OK","ERROR")</f>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">IF(K7="","",INDEX($D$38:$AC$38,(ROW(K7)-ROW($K$7))*2+1))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>22</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="D8">
         <f>IF(C8="","",A40)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <f>SUM(D54:H54)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F19" si="2">IF(E8&gt;=D8,"OK","ERROR")</f>
@@ -1070,11 +1070,11 @@
       </c>
       <c r="D9">
         <f>IF(C9="","",A41)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <f>SUM(D55:H55)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L9" s="18">
         <f>IF(K9="","",INDEX($D$38:$AC$38,(ROW(K9)-ROW($K$7))*2+1))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E10">
         <f>SUM(D56:H56)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E17" si="3">SUM(D57:H57)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="L11" cm="1">
         <f t="array" ref="L11">IF(K11="","",INDEX($D$38:$AC$38,(ROW(K11)-ROW($K$7))*2+1))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
@@ -1157,11 +1157,11 @@
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D19" si="4">IF(C12="","",A44)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="L13" cm="1">
         <f t="array" ref="L13">IF(K13="","",INDEX($D$38:$AC$38,(ROW(K13)-ROW($K$7))*2+1))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
@@ -1273,11 +1273,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="L17" cm="1">
         <f t="array" ref="L17">IF(K17="","",INDEX($D$38:$AC$38,(ROW(K17)-ROW($K$7))*2+1))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>2</v>
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="21" t="s">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>44</v>
       </c>
       <c r="X25" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="15" t="s">
         <v>45</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>40</v>
       </c>
       <c r="P26" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="22" t="s">
         <v>41</v>
@@ -1777,7 +1777,7 @@
         <v>Clase D</v>
       </c>
       <c r="D27" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>3</v>
@@ -2184,7 +2184,7 @@
     <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38">
         <f>SUM(D24:D28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <f>SUM(E24:E27)</f>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H38" s="19">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <f t="shared" si="7"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q38">
         <f t="shared" si="7"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="X38">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y38">
         <f t="shared" si="7"/>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="D39" s="9">
         <f>SUMIFS(D$24:D$27,E$24:E$27,$C39)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" ref="E39:AC39" si="8">SUMIFS(E$24:E$27,F$24:F$27,$C39)</f>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="H39" s="9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="8"/>
@@ -2404,7 +2404,7 @@
     <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:A51" si="9">SUM(C40:AB40)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="10" t="str">
         <f t="shared" ref="C40:C51" si="10">C8</f>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="H40" s="10">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="10">
         <f t="shared" si="11"/>
@@ -2518,7 +2518,7 @@
     <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="10" t="str">
         <f t="shared" si="10"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="H41" s="10">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="12"/>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" si="13"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="L42" s="10">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" si="13"/>
@@ -2860,7 +2860,7 @@
     <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="10" t="str">
         <f t="shared" si="10"/>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="P44" s="10">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q44" s="10">
         <f t="shared" si="15"/>
@@ -3316,7 +3316,7 @@
     <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" s="10" t="str">
         <f t="shared" si="10"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="X48" s="10">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y48" s="10">
         <f t="shared" si="19"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H53" s="30">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="H54" s="28">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="D55" s="28">
         <f>IF(D74="",D$90-D$89,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E55" s="28">
         <f t="shared" ref="E55:H55" si="26">IF(E74="",E$90-E$89,0)</f>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="H55" s="28">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" ref="E56:H56" si="27">IF(E75="",E$90-E$89,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F56" s="28">
         <f t="shared" si="27"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H56" s="28">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H57" s="28">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="H58" s="28">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -4087,15 +4087,15 @@
       </c>
       <c r="D59" s="28">
         <f t="shared" ref="D59:H59" si="30">IF(D78="",D$90-D$89,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E59" s="28">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F59" s="28">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G59" s="28">
         <f t="shared" si="30"/>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="H59" s="28">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="H60" s="28">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -4193,11 +4193,11 @@
       </c>
       <c r="G61" s="28">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H61" s="28">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="H62" s="28">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F63" s="28">
         <f t="shared" si="34"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="H63" s="28">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="H64" s="28">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="H65" s="27">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
@@ -4586,9 +4586,7 @@
         <f t="shared" si="37"/>
         <v>MARIO</v>
       </c>
-      <c r="D74" s="15">
-        <v>1</v>
-      </c>
+      <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -4604,14 +4602,10 @@
         <v>MARIA</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15">
-        <v>1</v>
-      </c>
+      <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
-      <c r="H75" s="15">
-        <v>1</v>
-      </c>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -4652,15 +4646,9 @@
         <f t="shared" si="37"/>
         <v>ANTONIA</v>
       </c>
-      <c r="D78" s="22">
-        <v>1</v>
-      </c>
-      <c r="E78" s="22">
-        <v>1</v>
-      </c>
-      <c r="F78" s="22">
-        <v>1</v>
-      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
     </row>
@@ -4691,9 +4679,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
-      <c r="G80" s="22">
-        <v>1</v>
-      </c>
+      <c r="G80" s="22"/>
       <c r="H80" s="22"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
@@ -4721,9 +4707,7 @@
         <v>LAURA</v>
       </c>
       <c r="D82" s="22"/>
-      <c r="E82" s="22">
-        <v>1</v>
-      </c>
+      <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
@@ -4844,7 +4828,7 @@
         <v>14</v>
       </c>
       <c r="H90" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
@@ -4853,7 +4837,7 @@
       </c>
       <c r="D92" s="25">
         <f>SUM(D90:H90)-SUM(D89:H89)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5004,7 @@
       </c>
       <c r="F2">
         <f>Sheet1!H24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
         <f>Sheet1!I24</f>
@@ -5036,7 +5020,7 @@
       </c>
       <c r="J2">
         <f>Sheet1!L24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
         <f>Sheet1!M24</f>
@@ -5130,7 +5114,7 @@
       </c>
       <c r="F3">
         <f>Sheet1!H25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
         <f>Sheet1!I25</f>
@@ -5194,7 +5178,7 @@
       </c>
       <c r="V3">
         <f>Sheet1!X25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W3" t="str">
         <f>Sheet1!Y25</f>
@@ -5240,7 +5224,7 @@
       </c>
       <c r="F4">
         <f>Sheet1!H26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
         <f>Sheet1!I26</f>
@@ -5272,7 +5256,7 @@
       </c>
       <c r="N4">
         <f>Sheet1!P26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="str">
         <f>Sheet1!Q26</f>
@@ -5334,7 +5318,7 @@
       </c>
       <c r="B5">
         <f>Sheet1!D27</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="str">
         <f>Sheet1!E27</f>
@@ -5350,7 +5334,7 @@
       </c>
       <c r="F5">
         <f>Sheet1!H27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
         <f>Sheet1!I27</f>
@@ -6523,7 +6507,7 @@
       </c>
       <c r="B4">
         <f>Sheet1!D74</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>Sheet1!E74</f>
@@ -6553,7 +6537,7 @@
       </c>
       <c r="C5">
         <f>Sheet1!E75</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>Sheet1!F75</f>
@@ -6565,7 +6549,7 @@
       </c>
       <c r="F5">
         <f>Sheet1!H75</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6627,15 +6611,15 @@
       </c>
       <c r="B8">
         <f>Sheet1!D78</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>Sheet1!E78</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f>Sheet1!F78</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>Sheet1!G78</f>
@@ -6691,7 +6675,7 @@
       </c>
       <c r="E10">
         <f>Sheet1!G80</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>Sheet1!H80</f>
@@ -6735,7 +6719,7 @@
       </c>
       <c r="C12">
         <f>Sheet1!E82</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>Sheet1!F82</f>
@@ -6880,7 +6864,7 @@
       </c>
       <c r="E3">
         <f>Sheet1!H90</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/datos/Generador inputs horarios 1.xlsx
+++ b/datos/Generador inputs horarios 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\practicaevol\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2022C33E-B67F-4246-A364-6E08593EEBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88055287-626E-4645-A047-AF007AD216E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">"09/19/2019 00:03:48"</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44501.4052662037</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -50,24 +50,32 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -795,11 +803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
@@ -1009,7 +1017,7 @@
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I19" si="1">IF(H7="","",SUM(D24:AC24))</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>11</v>
@@ -1032,7 +1040,7 @@
       </c>
       <c r="D8">
         <f>IF(C8="","",A40)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <f>SUM(D54:H54)</f>
@@ -1054,7 +1062,7 @@
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">IF(K8="","",INDEX($D$38:$AC$38,(ROW(K8)-ROW($K$7))*2+1))</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>23</v>
@@ -1070,7 +1078,7 @@
       </c>
       <c r="D9">
         <f>IF(C9="","",A41)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <f>SUM(D55:H55)</f>
@@ -1085,7 +1093,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>13</v>
@@ -1123,7 +1131,7 @@
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">IF(K10="","",INDEX($D$38:$AC$38,(ROW(K10)-ROW($K$7))*2+1))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
@@ -1215,7 +1223,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
@@ -1264,7 +1272,7 @@
       </c>
       <c r="L15" cm="1">
         <f t="array" ref="L15">IF(K15="","",INDEX($D$38:$AC$38,(ROW(K15)-ROW($K$7))*2+1))</f>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
@@ -1528,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>1</v>
@@ -1570,7 +1578,7 @@
         <v>42</v>
       </c>
       <c r="T24" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U24" s="14" t="s">
         <v>43</v>
@@ -1710,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>2</v>
@@ -2192,7 +2200,7 @@
       </c>
       <c r="F38">
         <f t="shared" ref="F38:AC38" si="7">SUM(F24:F27)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <f t="shared" si="7"/>
@@ -2208,7 +2216,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K38">
         <f t="shared" si="7"/>
@@ -2248,7 +2256,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U38">
         <f t="shared" si="7"/>
@@ -2404,7 +2412,7 @@
     <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40:A51" si="9">SUM(C40:AB40)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40" s="10" t="str">
         <f t="shared" ref="C40:C51" si="10">C8</f>
@@ -2420,7 +2428,7 @@
       </c>
       <c r="F40" s="10">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G40" s="10">
         <f t="shared" si="11"/>
@@ -2518,7 +2526,7 @@
     <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" s="10" t="str">
         <f t="shared" si="10"/>
@@ -2550,7 +2558,7 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" si="12"/>
@@ -3088,7 +3096,7 @@
     <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C46" s="10" t="str">
         <f t="shared" si="10"/>
@@ -3160,7 +3168,7 @@
       </c>
       <c r="T46" s="10">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U46" s="10">
         <f t="shared" si="17"/>
@@ -4885,7 +4893,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -5012,7 +5020,7 @@
       </c>
       <c r="D2">
         <f>Sheet1!F24</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <f>Sheet1!G24</f>
@@ -5068,7 +5076,7 @@
       </c>
       <c r="R2">
         <f>Sheet1!T24</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S2" t="str">
         <f>Sheet1!U24</f>
@@ -5248,7 +5256,7 @@
       </c>
       <c r="H4">
         <f>Sheet1!J26</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="str">
         <f>Sheet1!K26</f>
@@ -6436,7 +6444,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -6815,7 +6823,7 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">

--- a/datos/Generador inputs horarios 1.xlsx
+++ b/datos/Generador inputs horarios 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\practicaevol\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008B9D3-27BB-401F-9F39-142C24D6D537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA3246-332F-48CC-A4BD-33472282D713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">"09/19/2019 00:03:48"</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44501.4052662037</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -50,24 +50,32 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -82,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>PEPE</t>
   </si>
@@ -121,9 +129,6 @@
   </si>
   <si>
     <t>Lengua</t>
-  </si>
-  <si>
-    <t>Tutoría</t>
   </si>
   <si>
     <t>Historia</t>
@@ -441,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -466,7 +471,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,10 +800,10 @@
   <dimension ref="A1:AC92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
@@ -931,7 +935,7 @@
     </row>
     <row r="2" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -939,7 +943,7 @@
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -960,28 +964,28 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="30" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="9">
         <f>COUNTA($C$7:$C$19)</f>
@@ -1019,7 +1023,7 @@
         <v>17</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" s="10">
         <f>COUNTA($H$7:$H$19)</f>
@@ -1057,11 +1061,11 @@
         <v>15</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="11">
         <f>COUNTA($K$7:$K$19)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
@@ -1090,9 +1094,9 @@
       <c r="K9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="18">
-        <f>IF(K9="","",INDEX($D$38:$AC$38,(ROW(K9)-ROW($K$7))*2+1))</f>
-        <v>0</v>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">IF(K9="","",INDEX($D$38:$AC$38,(ROW(K9)-ROW($K$7))*2+1))</f>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
@@ -1123,12 +1127,12 @@
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">IF(K10="","",INDEX($D$38:$AC$38,(ROW(K10)-ROW($K$7))*2+1))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <f>IF(C11="","",A43)</f>
@@ -1148,12 +1152,12 @@
       </c>
       <c r="L11" cm="1">
         <f t="array" ref="L11">IF(K11="","",INDEX($D$38:$AC$38,(ROW(K11)-ROW($K$7))*2+1))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D19" si="4">IF(C12="","",A44)</f>
@@ -1177,12 +1181,12 @@
       </c>
       <c r="L12" cm="1">
         <f t="array" ref="L12">IF(K12="","",INDEX($D$38:$AC$38,(ROW(K12)-ROW($K$7))*2+1))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
@@ -1202,16 +1206,16 @@
         <v/>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" ref="L13">IF(K13="","",INDEX($D$38:$AC$38,(ROW(K13)-ROW($K$7))*2+1))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -1235,12 +1239,12 @@
       </c>
       <c r="L14" cm="1">
         <f t="array" ref="L14">IF(K14="","",INDEX($D$38:$AC$38,(ROW(K14)-ROW($K$7))*2+1))</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -1260,16 +1264,16 @@
         <v/>
       </c>
       <c r="K15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" ref="L15">IF(K15="","",INDEX($D$38:$AC$38,(ROW(K15)-ROW($K$7))*2+1))</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -1289,16 +1293,16 @@
         <v/>
       </c>
       <c r="K16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L16" cm="1">
         <f t="array" ref="L16">IF(K16="","",INDEX($D$38:$AC$38,(ROW(K16)-ROW($K$7))*2+1))</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
@@ -1318,11 +1322,11 @@
         <v/>
       </c>
       <c r="K17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" ref="L17">IF(K17="","",INDEX($D$38:$AC$38,(ROW(K17)-ROW($K$7))*2+1))</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -1340,13 +1344,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" cm="1">
-        <f t="array" ref="L18">IF(K18="","",INDEX($D$38:$AC$38,(ROW(K18)-ROW($K$7))*2+1))</f>
-        <v>4</v>
-      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
@@ -1371,7 +1369,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1405,7 +1403,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(D23)-COLUMN($D23))/2+1)</f>
@@ -1425,83 +1423,83 @@
       </c>
       <c r="H23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(H23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Tutoría</v>
+        <v>horas_Historia</v>
       </c>
       <c r="I23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(H23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Tutoría</v>
+        <v>profesor_Historia</v>
       </c>
       <c r="J23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(J23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Historia</v>
+        <v>horas_Química</v>
       </c>
       <c r="K23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(J23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Historia</v>
+        <v>profesor_Química</v>
       </c>
       <c r="L23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(L23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Química</v>
+        <v>horas_Física</v>
       </c>
       <c r="M23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(L23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Química</v>
+        <v>profesor_Física</v>
       </c>
       <c r="N23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(N23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Física</v>
+        <v>horas_Filosofía</v>
       </c>
       <c r="O23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(N23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Física</v>
+        <v>profesor_Filosofía</v>
       </c>
       <c r="P23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(P23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Filosofía</v>
+        <v>horas_Música</v>
       </c>
       <c r="Q23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(P23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Filosofía</v>
+        <v>profesor_Música</v>
       </c>
       <c r="R23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(R23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Música</v>
+        <v>horas_Catalán</v>
       </c>
       <c r="S23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(R23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Música</v>
+        <v>profesor_Catalán</v>
       </c>
       <c r="T23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(T23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Catalán</v>
+        <v>horas_Ed. física</v>
       </c>
       <c r="U23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(T23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Catalán</v>
+        <v>profesor_Ed. física</v>
       </c>
       <c r="V23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(V23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Ed. física</v>
+        <v>horas_Inglés</v>
       </c>
       <c r="W23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(V23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Ed. física</v>
+        <v>profesor_Inglés</v>
       </c>
       <c r="X23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(X23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Inglés</v>
+        <v>horas_Biología</v>
       </c>
       <c r="Y23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(X23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Inglés</v>
+        <v>profesor_Biología</v>
       </c>
       <c r="Z23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(Z23)-COLUMN($D23))/2+1)</f>
-        <v>horas_Biología</v>
+        <v>horas_</v>
       </c>
       <c r="AA23" s="8" t="str">
         <f>"profesor_"&amp;+INDEX($K$7:$K$19,(COLUMN(Z23)-COLUMN($D23))/2+1)</f>
-        <v>profesor_Biología</v>
+        <v>profesor_</v>
       </c>
       <c r="AB23" s="8" t="str">
         <f>"horas_"&amp;+INDEX($K$7:$K$19,(COLUMN(AB23)-COLUMN($D23))/2+1)</f>
@@ -1521,78 +1519,74 @@
         <f t="shared" ref="C24:C36" si="5">IF(H7="","",H7)</f>
         <v>Clase A</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>5</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
+      <c r="E24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
         <v>4</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21" t="s">
+      <c r="H24" s="20">
         <v>2</v>
       </c>
-      <c r="J24" s="21">
+      <c r="I24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="J24" s="20">
+        <v>1</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="20">
         <v>2</v>
       </c>
-      <c r="L24" s="21">
-        <v>1</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="21">
+      <c r="M24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="20">
         <v>2</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="21" t="s">
+      <c r="P24" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="20" t="s">
         <v>41</v>
       </c>
       <c r="R24" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="T24" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U24" s="14" t="s">
         <v>43</v>
       </c>
       <c r="V24" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W24" s="14" t="s">
         <v>44</v>
       </c>
       <c r="X24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="14">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="14" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
@@ -1606,78 +1600,74 @@
         <f t="shared" si="5"/>
         <v>Clase B</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>3</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="E25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
         <v>3</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
+      <c r="H25" s="21">
         <v>4</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="22">
+      <c r="J25" s="21">
         <v>3</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
-      <c r="O25" s="22" t="s">
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="21">
+        <v>4</v>
+      </c>
+      <c r="O25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="15">
         <v>4</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" s="15">
-        <v>0</v>
       </c>
       <c r="S25" s="15" t="s">
         <v>42</v>
       </c>
       <c r="T25" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V25" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W25" s="15" t="s">
         <v>44</v>
       </c>
       <c r="X25" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
     </row>
@@ -1691,78 +1681,74 @@
         <f t="shared" si="5"/>
         <v>Clase C</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>4</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="E26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
         <v>4</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="22">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22" t="s">
+      <c r="H26" s="21">
+        <v>3</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="21">
+        <v>3</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="21">
         <v>1</v>
       </c>
-      <c r="J26" s="22">
+      <c r="O26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="15">
         <v>3</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="22">
-        <v>0</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="22">
-        <v>3</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26" s="15">
-        <v>2</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>42</v>
       </c>
       <c r="T26" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U26" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V26" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="X26" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
     </row>
@@ -1776,78 +1762,74 @@
         <f t="shared" si="5"/>
         <v>Clase D</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>5</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="22">
+      <c r="E27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
         <v>4</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="22">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22" t="s">
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="21">
+        <v>2</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="22">
-        <v>0</v>
-      </c>
-      <c r="K27" s="22" t="s">
+      <c r="L27" s="21">
+        <v>3</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="21">
         <v>2</v>
       </c>
-      <c r="L27" s="22">
-        <v>2</v>
-      </c>
-      <c r="M27" s="22" t="s">
+      <c r="O27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="15">
         <v>3</v>
-      </c>
-      <c r="N27" s="22">
-        <v>3</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R27" s="15">
-        <v>0</v>
       </c>
       <c r="S27" s="15" t="s">
         <v>42</v>
       </c>
       <c r="T27" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V27" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27" s="15" t="s">
         <v>44</v>
       </c>
       <c r="X27" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z27" s="15">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
     </row>
@@ -2150,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="27" t="str">
+      <c r="C36" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2198,9 +2180,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I38">
         <f t="shared" si="7"/>
@@ -2208,7 +2190,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K38">
         <f t="shared" si="7"/>
@@ -2216,7 +2198,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
@@ -2224,7 +2206,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O38">
         <f t="shared" si="7"/>
@@ -2232,7 +2214,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q38">
         <f t="shared" si="7"/>
@@ -2240,7 +2222,7 @@
       </c>
       <c r="R38">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S38">
         <f t="shared" si="7"/>
@@ -2248,7 +2230,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <f t="shared" si="7"/>
@@ -2256,7 +2238,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="W38">
         <f t="shared" si="7"/>
@@ -2264,7 +2246,7 @@
       </c>
       <c r="X38">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Y38">
         <f t="shared" si="7"/>
@@ -2272,7 +2254,7 @@
       </c>
       <c r="Z38">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <f t="shared" si="7"/>
@@ -2542,7 +2524,7 @@
       </c>
       <c r="H41" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="12"/>
@@ -2550,7 +2532,7 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" si="12"/>
@@ -2664,7 +2646,7 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" si="13"/>
@@ -2672,7 +2654,7 @@
       </c>
       <c r="L42" s="10">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" si="13"/>
@@ -2786,7 +2768,7 @@
       </c>
       <c r="L43" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M43" s="10">
         <f t="shared" si="14"/>
@@ -2794,7 +2776,7 @@
       </c>
       <c r="N43" s="10">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O43" s="10">
         <f t="shared" si="14"/>
@@ -2908,7 +2890,7 @@
       </c>
       <c r="N44" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O44" s="10">
         <f t="shared" si="15"/>
@@ -2916,7 +2898,7 @@
       </c>
       <c r="P44" s="10">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="10">
         <f t="shared" si="15"/>
@@ -3030,7 +3012,7 @@
       </c>
       <c r="P45" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="10">
         <f t="shared" si="16"/>
@@ -3038,7 +3020,7 @@
       </c>
       <c r="R45" s="10">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S45" s="10">
         <f t="shared" si="16"/>
@@ -3152,7 +3134,7 @@
       </c>
       <c r="R46" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S46" s="10">
         <f t="shared" si="17"/>
@@ -3160,7 +3142,7 @@
       </c>
       <c r="T46" s="10">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U46" s="10">
         <f t="shared" si="17"/>
@@ -3274,7 +3256,7 @@
       </c>
       <c r="T47" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U47" s="10">
         <f t="shared" si="18"/>
@@ -3282,7 +3264,7 @@
       </c>
       <c r="V47" s="10">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W47" s="10">
         <f t="shared" si="18"/>
@@ -3396,7 +3378,7 @@
       </c>
       <c r="V48" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W48" s="10">
         <f t="shared" si="19"/>
@@ -3404,7 +3386,7 @@
       </c>
       <c r="X48" s="10">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="10">
         <f t="shared" si="19"/>
@@ -3518,7 +3500,7 @@
       </c>
       <c r="X49" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y49" s="10">
         <f t="shared" si="20"/>
@@ -3526,7 +3508,7 @@
       </c>
       <c r="Z49" s="10">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="10">
         <f t="shared" si="20"/>
@@ -3803,23 +3785,23 @@
         <f>C39</f>
         <v>PEPE</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="29">
         <f>IF(D72="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="29">
         <f t="shared" ref="E53:H53" si="23">IF(E72="",E$90-E$89,0)</f>
         <v>6</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="29">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="29">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="29">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
@@ -3850,23 +3832,23 @@
         <f t="shared" ref="C54:C65" si="24">C40</f>
         <v>PEPA</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="27">
         <f>IF(D73="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="27">
         <f t="shared" ref="E54:H54" si="25">IF(E73="",E$90-E$89,0)</f>
         <v>6</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="27">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="27">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
@@ -3897,23 +3879,23 @@
         <f t="shared" si="24"/>
         <v>MARIO</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D55" s="27">
         <f>IF(D74="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="27">
         <f t="shared" ref="E55:H55" si="26">IF(E74="",E$90-E$89,0)</f>
         <v>6</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="27">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="27">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="27">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
@@ -3944,23 +3926,23 @@
         <f t="shared" si="24"/>
         <v>MARIA</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="27">
         <f>IF(D75="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="27">
         <f t="shared" ref="E56:H56" si="27">IF(E75="",E$90-E$89,0)</f>
         <v>6</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="27">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="27">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H56" s="27">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
@@ -3991,23 +3973,23 @@
         <f t="shared" si="24"/>
         <v>JOSE</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D57" s="27">
         <f t="shared" ref="D57:H57" si="28">IF(D76="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="27">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="27">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="27">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="27">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
@@ -4038,23 +4020,23 @@
         <f t="shared" si="24"/>
         <v>JUAN</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D58" s="27">
         <f t="shared" ref="D58:H58" si="29">IF(D77="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="27">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="27">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="27">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="27">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
@@ -4085,23 +4067,23 @@
         <f t="shared" si="24"/>
         <v>ANTONIA</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="27">
         <f t="shared" ref="D59:H59" si="30">IF(D78="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="27">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="27">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="27">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="27">
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
@@ -4132,23 +4114,23 @@
         <f t="shared" si="24"/>
         <v>LUISA</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="27">
         <f t="shared" ref="D60:H60" si="31">IF(D79="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="27">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="27">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="G60" s="28">
+      <c r="G60" s="27">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="H60" s="28">
+      <c r="H60" s="27">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
@@ -4179,23 +4161,23 @@
         <f t="shared" si="24"/>
         <v>MIGUEL</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D61" s="27">
         <f t="shared" ref="D61:H61" si="32">IF(D80="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="27">
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="27">
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="27">
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="27">
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
@@ -4226,23 +4208,23 @@
         <f t="shared" si="24"/>
         <v>RAMON</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="27">
         <f t="shared" ref="D62:H62" si="33">IF(D81="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="27">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="27">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="27">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="H62" s="28">
+      <c r="H62" s="27">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
@@ -4273,23 +4255,23 @@
         <f t="shared" si="24"/>
         <v>LAURA</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="27">
         <f t="shared" ref="D63:H63" si="34">IF(D82="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="27">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="27">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="27">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="27">
         <f t="shared" si="34"/>
         <v>6</v>
       </c>
@@ -4320,23 +4302,23 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="27">
         <f t="shared" ref="D64:H64" si="35">IF(D83="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="27">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="27">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="27">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="27">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -4367,23 +4349,23 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="26">
         <f t="shared" ref="D65:H65" si="36">IF(D84="",D$90-D$89,0)</f>
         <v>6</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="26">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="26">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="G65" s="27">
+      <c r="G65" s="26">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H65" s="26">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
@@ -4498,7 +4480,7 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -4530,22 +4512,22 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="E71" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="F71" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="G71" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="H71" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
@@ -4616,11 +4598,11 @@
         <f t="shared" si="37"/>
         <v>JOSE</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -4631,11 +4613,11 @@
         <f t="shared" si="37"/>
         <v>JUAN</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -4646,11 +4628,11 @@
         <f t="shared" si="37"/>
         <v>ANTONIA</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -4661,11 +4643,11 @@
         <f t="shared" si="37"/>
         <v>LUISA</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -4676,11 +4658,11 @@
         <f t="shared" si="37"/>
         <v>MIGUEL</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -4691,11 +4673,11 @@
         <f t="shared" si="37"/>
         <v>RAMON</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -4706,45 +4688,45 @@
         <f t="shared" si="37"/>
         <v>LAURA</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="C83" s="28" t="str">
+      <c r="C83" s="27" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="38"/>
         <v>13</v>
       </c>
-      <c r="C84" s="27" t="str">
+      <c r="C84" s="26" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -4775,67 +4757,67 @@
       <c r="AC86" s="5"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="F88" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="G88" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G88" s="20" t="s">
+      <c r="H88" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="23">
+        <v>32</v>
+      </c>
+      <c r="D89" s="22">
         <v>8</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="22">
         <v>8</v>
       </c>
-      <c r="F89" s="23">
+      <c r="F89" s="22">
         <v>8</v>
       </c>
-      <c r="G89" s="23">
+      <c r="G89" s="22">
         <v>8</v>
       </c>
-      <c r="H89" s="23">
+      <c r="H89" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C90" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="24">
+        <v>33</v>
+      </c>
+      <c r="D90" s="23">
         <v>14</v>
       </c>
-      <c r="E90" s="24">
+      <c r="E90" s="23">
         <v>14</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F90" s="23">
         <v>14</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G90" s="23">
         <v>14</v>
       </c>
-      <c r="H90" s="24">
+      <c r="H90" s="23">
         <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C92" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="25">
+        <v>34</v>
+      </c>
+      <c r="D92" s="24">
         <f>SUM(D90:H90)-SUM(D89:H89)</f>
         <v>30</v>
       </c>
@@ -4869,7 +4851,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -4894,83 +4876,83 @@
       </c>
       <c r="F1" t="str">
         <f>Sheet1!H23</f>
-        <v>horas_Tutoría</v>
+        <v>horas_Historia</v>
       </c>
       <c r="G1" t="str">
         <f>Sheet1!I23</f>
-        <v>profesor_Tutoría</v>
+        <v>profesor_Historia</v>
       </c>
       <c r="H1" t="str">
         <f>Sheet1!J23</f>
-        <v>horas_Historia</v>
+        <v>horas_Química</v>
       </c>
       <c r="I1" t="str">
         <f>Sheet1!K23</f>
-        <v>profesor_Historia</v>
+        <v>profesor_Química</v>
       </c>
       <c r="J1" t="str">
         <f>Sheet1!L23</f>
-        <v>horas_Química</v>
+        <v>horas_Física</v>
       </c>
       <c r="K1" t="str">
         <f>Sheet1!M23</f>
-        <v>profesor_Química</v>
+        <v>profesor_Física</v>
       </c>
       <c r="L1" t="str">
         <f>Sheet1!N23</f>
-        <v>horas_Física</v>
+        <v>horas_Filosofía</v>
       </c>
       <c r="M1" t="str">
         <f>Sheet1!O23</f>
-        <v>profesor_Física</v>
+        <v>profesor_Filosofía</v>
       </c>
       <c r="N1" t="str">
         <f>Sheet1!P23</f>
-        <v>horas_Filosofía</v>
+        <v>horas_Música</v>
       </c>
       <c r="O1" t="str">
         <f>Sheet1!Q23</f>
-        <v>profesor_Filosofía</v>
+        <v>profesor_Música</v>
       </c>
       <c r="P1" t="str">
         <f>Sheet1!R23</f>
-        <v>horas_Música</v>
+        <v>horas_Catalán</v>
       </c>
       <c r="Q1" t="str">
         <f>Sheet1!S23</f>
-        <v>profesor_Música</v>
+        <v>profesor_Catalán</v>
       </c>
       <c r="R1" t="str">
         <f>Sheet1!T23</f>
-        <v>horas_Catalán</v>
+        <v>horas_Ed. física</v>
       </c>
       <c r="S1" t="str">
         <f>Sheet1!U23</f>
-        <v>profesor_Catalán</v>
-      </c>
-      <c r="T1" s="19" t="str">
+        <v>profesor_Ed. física</v>
+      </c>
+      <c r="T1" s="18" t="str">
         <f>Sheet1!V23</f>
-        <v>horas_Ed. física</v>
+        <v>horas_Inglés</v>
       </c>
       <c r="U1" t="str">
         <f>Sheet1!W23</f>
-        <v>profesor_Ed. física</v>
+        <v>profesor_Inglés</v>
       </c>
       <c r="V1" t="str">
         <f>Sheet1!X23</f>
-        <v>horas_Inglés</v>
+        <v>horas_Biología</v>
       </c>
       <c r="W1" t="str">
         <f>Sheet1!Y23</f>
-        <v>profesor_Inglés</v>
+        <v>profesor_Biología</v>
       </c>
       <c r="X1" t="str">
         <f>Sheet1!Z23</f>
-        <v>horas_Biología</v>
+        <v>horas_</v>
       </c>
       <c r="Y1" t="str">
         <f>Sheet1!AA23</f>
-        <v>profesor_Biología</v>
+        <v>profesor_</v>
       </c>
       <c r="Z1" t="str">
         <f>Sheet1!AB23</f>
@@ -5004,7 +4986,7 @@
       </c>
       <c r="F2">
         <f>Sheet1!H24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
         <f>Sheet1!I24</f>
@@ -5012,19 +4994,19 @@
       </c>
       <c r="H2">
         <f>Sheet1!J24</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
         <f>Sheet1!K24</f>
-        <v>MARIO</v>
+        <v>MARIA</v>
       </c>
       <c r="J2">
         <f>Sheet1!L24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="str">
         <f>Sheet1!M24</f>
-        <v>MARIA</v>
+        <v>JOSE</v>
       </c>
       <c r="L2">
         <f>Sheet1!N24</f>
@@ -5032,55 +5014,55 @@
       </c>
       <c r="M2" t="str">
         <f>Sheet1!O24</f>
-        <v>JOSE</v>
+        <v>JUAN</v>
       </c>
       <c r="N2">
         <f>Sheet1!P24</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="str">
         <f>Sheet1!Q24</f>
-        <v>JUAN</v>
+        <v>ANTONIA</v>
       </c>
       <c r="P2">
         <f>Sheet1!R24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="str">
         <f>Sheet1!S24</f>
-        <v>ANTONIA</v>
+        <v>LUISA</v>
       </c>
       <c r="R2">
         <f>Sheet1!T24</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S2" t="str">
         <f>Sheet1!U24</f>
-        <v>LUISA</v>
-      </c>
-      <c r="T2" s="19">
+        <v>MIGUEL</v>
+      </c>
+      <c r="T2" s="18">
         <f>Sheet1!V24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U2" t="str">
         <f>Sheet1!W24</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="V2">
         <f>Sheet1!X24</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" t="str">
         <f>Sheet1!Y24</f>
-        <v>RAMON</v>
+        <v>LAURA</v>
       </c>
       <c r="X2">
         <f>Sheet1!Z24</f>
-        <v>2</v>
-      </c>
-      <c r="Y2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <f>Sheet1!AA24</f>
-        <v>LAURA</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f>Sheet1!AB24</f>
@@ -5114,83 +5096,83 @@
       </c>
       <c r="F3">
         <f>Sheet1!H25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="str">
         <f>Sheet1!I25</f>
-        <v>PEPE</v>
+        <v>MARIO</v>
       </c>
       <c r="H3">
         <f>Sheet1!J25</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="str">
         <f>Sheet1!K25</f>
-        <v>MARIO</v>
+        <v>MARIA</v>
       </c>
       <c r="J3">
         <f>Sheet1!L25</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
         <f>Sheet1!M25</f>
-        <v>MARIA</v>
+        <v>JOSE</v>
       </c>
       <c r="L3">
         <f>Sheet1!N25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="str">
         <f>Sheet1!O25</f>
-        <v>JOSE</v>
+        <v>JUAN</v>
       </c>
       <c r="N3">
         <f>Sheet1!P25</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="str">
         <f>Sheet1!Q25</f>
-        <v>JUAN</v>
+        <v>ANTONIA</v>
       </c>
       <c r="P3">
         <f>Sheet1!R25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="str">
         <f>Sheet1!S25</f>
-        <v>ANTONIA</v>
+        <v>LUISA</v>
       </c>
       <c r="R3">
         <f>Sheet1!T25</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="str">
         <f>Sheet1!U25</f>
-        <v>LUISA</v>
-      </c>
-      <c r="T3" s="19">
+        <v>MIGUEL</v>
+      </c>
+      <c r="T3" s="18">
         <f>Sheet1!V25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U3" t="str">
         <f>Sheet1!W25</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="V3">
         <f>Sheet1!X25</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W3" t="str">
         <f>Sheet1!Y25</f>
-        <v>RAMON</v>
+        <v>LAURA</v>
       </c>
       <c r="X3">
         <f>Sheet1!Z25</f>
         <v>0</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Y3">
         <f>Sheet1!AA25</f>
-        <v>LAURA</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <f>Sheet1!AB25</f>
@@ -5224,83 +5206,83 @@
       </c>
       <c r="F4">
         <f>Sheet1!H26</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="str">
         <f>Sheet1!I26</f>
-        <v>PEPA</v>
+        <v>MARIO</v>
       </c>
       <c r="H4">
         <f>Sheet1!J26</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="str">
         <f>Sheet1!K26</f>
-        <v>MARIO</v>
+        <v>MARIA</v>
       </c>
       <c r="J4">
         <f>Sheet1!L26</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="str">
         <f>Sheet1!M26</f>
-        <v>MARIA</v>
+        <v>JOSE</v>
       </c>
       <c r="L4">
         <f>Sheet1!N26</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" t="str">
         <f>Sheet1!O26</f>
-        <v>JOSE</v>
+        <v>JUAN</v>
       </c>
       <c r="N4">
         <f>Sheet1!P26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="str">
         <f>Sheet1!Q26</f>
-        <v>JUAN</v>
+        <v>ANTONIA</v>
       </c>
       <c r="P4">
         <f>Sheet1!R26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="str">
         <f>Sheet1!S26</f>
-        <v>ANTONIA</v>
+        <v>LUISA</v>
       </c>
       <c r="R4">
         <f>Sheet1!T26</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" t="str">
         <f>Sheet1!U26</f>
-        <v>LUISA</v>
-      </c>
-      <c r="T4" s="19">
+        <v>MIGUEL</v>
+      </c>
+      <c r="T4" s="18">
         <f>Sheet1!V26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="str">
         <f>Sheet1!W26</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="V4">
         <f>Sheet1!X26</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4" t="str">
         <f>Sheet1!Y26</f>
-        <v>RAMON</v>
+        <v>LAURA</v>
       </c>
       <c r="X4">
         <f>Sheet1!Z26</f>
         <v>0</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="Y4">
         <f>Sheet1!AA26</f>
-        <v>LAURA</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <f>Sheet1!AB26</f>
@@ -5338,79 +5320,79 @@
       </c>
       <c r="G5" t="str">
         <f>Sheet1!I27</f>
-        <v>MARIA</v>
+        <v>MARIO</v>
       </c>
       <c r="H5">
         <f>Sheet1!J27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="str">
         <f>Sheet1!K27</f>
-        <v>MARIO</v>
+        <v>MARIA</v>
       </c>
       <c r="J5">
         <f>Sheet1!L27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="str">
         <f>Sheet1!M27</f>
-        <v>MARIA</v>
+        <v>JOSE</v>
       </c>
       <c r="L5">
         <f>Sheet1!N27</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="str">
         <f>Sheet1!O27</f>
-        <v>JOSE</v>
+        <v>JUAN</v>
       </c>
       <c r="N5">
         <f>Sheet1!P27</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="str">
         <f>Sheet1!Q27</f>
-        <v>JUAN</v>
+        <v>ANTONIA</v>
       </c>
       <c r="P5">
         <f>Sheet1!R27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="str">
         <f>Sheet1!S27</f>
-        <v>ANTONIA</v>
+        <v>LUISA</v>
       </c>
       <c r="R5">
         <f>Sheet1!T27</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5" t="str">
         <f>Sheet1!U27</f>
-        <v>LUISA</v>
-      </c>
-      <c r="T5" s="19">
+        <v>MIGUEL</v>
+      </c>
+      <c r="T5" s="18">
         <f>Sheet1!V27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5" t="str">
         <f>Sheet1!W27</f>
-        <v>MIGUEL</v>
+        <v>RAMON</v>
       </c>
       <c r="V5">
         <f>Sheet1!X27</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5" t="str">
         <f>Sheet1!Y27</f>
-        <v>RAMON</v>
+        <v>LAURA</v>
       </c>
       <c r="X5">
         <f>Sheet1!Z27</f>
-        <v>2</v>
-      </c>
-      <c r="Y5" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <f>Sheet1!AA27</f>
-        <v>LAURA</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f>Sheet1!AB27</f>
@@ -5494,7 +5476,7 @@
         <f>Sheet1!U28</f>
         <v>0</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="18">
         <f>Sheet1!V28</f>
         <v>0</v>
       </c>
@@ -5604,7 +5586,7 @@
         <f>Sheet1!U29</f>
         <v>0</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="18">
         <f>Sheet1!V29</f>
         <v>0</v>
       </c>
@@ -5714,7 +5696,7 @@
         <f>Sheet1!U30</f>
         <v>0</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="18">
         <f>Sheet1!V30</f>
         <v>0</v>
       </c>
@@ -5824,7 +5806,7 @@
         <f>Sheet1!U31</f>
         <v>0</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="18">
         <f>Sheet1!V31</f>
         <v>0</v>
       </c>
@@ -5934,7 +5916,7 @@
         <f>Sheet1!U32</f>
         <v>0</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="18">
         <f>Sheet1!V32</f>
         <v>0</v>
       </c>
@@ -6044,7 +6026,7 @@
         <f>Sheet1!U33</f>
         <v>0</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="18">
         <f>Sheet1!V33</f>
         <v>0</v>
       </c>
@@ -6154,7 +6136,7 @@
         <f>Sheet1!U34</f>
         <v>0</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="18">
         <f>Sheet1!V34</f>
         <v>0</v>
       </c>
@@ -6264,7 +6246,7 @@
         <f>Sheet1!U35</f>
         <v>0</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="18">
         <f>Sheet1!V35</f>
         <v>0</v>
       </c>
@@ -6298,83 +6280,83 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="str">
+      <c r="A14" s="18" t="str">
         <f>Sheet1!C36</f>
         <v/>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f>Sheet1!D36</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f>Sheet1!E36</f>
         <v>0</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f>Sheet1!F36</f>
         <v>0</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f>Sheet1!G36</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f>Sheet1!H36</f>
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f>Sheet1!I36</f>
         <v>0</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <f>Sheet1!J36</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <f>Sheet1!K36</f>
         <v>0</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <f>Sheet1!L36</f>
         <v>0</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <f>Sheet1!M36</f>
         <v>0</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="18">
         <f>Sheet1!N36</f>
         <v>0</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <f>Sheet1!O36</f>
         <v>0</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <f>Sheet1!P36</f>
         <v>0</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="18">
         <f>Sheet1!Q36</f>
         <v>0</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="18">
         <f>Sheet1!R36</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="18">
         <f>Sheet1!S36</f>
         <v>0</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="18">
         <f>Sheet1!T36</f>
         <v>0</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="18">
         <f>Sheet1!U36</f>
         <v>0</v>
       </c>
-      <c r="T14" s="19">
+      <c r="T14" s="18">
         <f>Sheet1!V36</f>
         <v>0</v>
       </c>
@@ -6420,7 +6402,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -6799,7 +6781,7 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
